--- a/StaticData/SampleStaticData.xlsx
+++ b/StaticData/SampleStaticData.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\gitProject\Playground\StaticData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7A9A1C-9912-451F-9E6B-01FB98EE5A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1851406B-7CDC-43DB-934C-BEE5A919B6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15900" windowWidth="28800" windowHeight="15900" activeTab="1" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
+    <workbookView xWindow="-14400" yWindow="19935" windowWidth="14400" windowHeight="8700" activeTab="2" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="_ 일러두기" sheetId="1" r:id="rId1"/>
     <sheet name="UserExp" sheetId="2" r:id="rId2"/>
+    <sheet name="AnimalCard" sheetId="3" r:id="rId3"/>
+    <sheet name="_SponsorCard" sheetId="4" r:id="rId4"/>
+    <sheet name="_ProtectionCard" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="105">
   <si>
     <t>C10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,14 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Key, Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,87 +114,348 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>RewardType[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardType[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardType[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardType RewardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Probability[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Probability[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Probability[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScenarioEventId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key: int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key: int, Target: Client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CazeSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key, int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CageCondition[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CageCondition[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialCazeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialCazeOccupiedSpace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RewardType[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amount[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardType[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amount[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardType[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amount[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardType RewardType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int Amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Currency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>per100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Probability[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Probability[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Probability[2]</t>
+    <t>ScientificName</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconCondition[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconCondition[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconCondition[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardAmount[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardAmount[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardAmount[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인도독수리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gyps indicus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형새장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽은고기먹기3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽인 고기 먹기 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버린 카드를 섞은 후 3장 뽑음. 그중 1장 가지고 나머지 카드 버림.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scinonyx jubatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>육식동물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력질주3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력 질주 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덱에서 카드 3장 뽑음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동부콜로부스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colobus guereza</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영장류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아프리카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영리한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번 행동이 끝난 후, 당신은 원하는 행동 카드를 1에 놓을 수 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무족도마뱀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anguis fragilis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준위협</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파충류사육장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파충류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유럽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Continent</t>
+  </si>
+  <si>
+    <t>enum:Reward class:Reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:Reward, class:UserReward, Target:Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +463,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,8 +495,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +515,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,7 +554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -301,6 +572,12 @@
     </xf>
     <xf numFmtId="20" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,9 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D65A98-4783-4247-BF40-D0E21341F489}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -685,10 +960,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3139666B-29D1-4298-A8DA-90BC61575186}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -696,7 +971,7 @@
     <col min="1" max="1" width="4.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
@@ -708,99 +983,87 @@
     <col min="13" max="13" width="7.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
@@ -808,43 +1071,46 @@
         <v>12</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="G11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="I11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="K11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="N11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="O11" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>1</v>
       </c>
@@ -852,13 +1118,13 @@
         <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2">
         <v>99</v>
       </c>
       <c r="F12" s="2">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -869,8 +1135,9 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -878,7 +1145,7 @@
         <v>300</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2">
         <v>99</v>
@@ -888,7 +1155,7 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I13" s="2">
         <v>1001</v>
@@ -903,8 +1170,11 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>3</v>
       </c>
@@ -912,7 +1182,7 @@
         <v>600</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2">
         <v>99</v>
@@ -929,8 +1199,9 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>4</v>
       </c>
@@ -938,7 +1209,7 @@
         <v>1000</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2">
         <v>99</v>
@@ -948,7 +1219,7 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I15" s="2">
         <v>1001</v>
@@ -961,8 +1232,9 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>5</v>
       </c>
@@ -970,7 +1242,7 @@
         <v>1500</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2">
         <v>99</v>
@@ -987,8 +1259,9 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>6</v>
       </c>
@@ -996,7 +1269,7 @@
         <v>2100</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2">
         <v>99</v>
@@ -1006,7 +1279,7 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I17" s="2">
         <v>1001</v>
@@ -1016,7 +1289,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M17" s="2">
         <v>2001</v>
@@ -1027,8 +1300,9 @@
       <c r="O17" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>7</v>
       </c>
@@ -1036,7 +1310,7 @@
         <v>2700</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2">
         <v>99</v>
@@ -1053,8 +1327,9 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>8</v>
       </c>
@@ -1062,7 +1337,7 @@
         <v>3400</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2">
         <v>99</v>
@@ -1072,7 +1347,7 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I19" s="2">
         <v>1001</v>
@@ -1082,7 +1357,7 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M19" s="2">
         <v>2001</v>
@@ -1093,8 +1368,9 @@
       <c r="O19" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>9</v>
       </c>
@@ -1102,7 +1378,7 @@
         <v>4100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2">
         <v>99</v>
@@ -1119,8 +1395,9 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>10</v>
       </c>
@@ -1128,7 +1405,7 @@
         <v>5000</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2">
         <v>99</v>
@@ -1138,7 +1415,7 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I21" s="2">
         <v>1001</v>
@@ -1148,7 +1425,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M21" s="2">
         <v>2001</v>
@@ -1158,10 +1435,450 @@
       </c>
       <c r="O21" s="2">
         <v>70</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B73EE45-E586-4244-A3FD-0FA11887A914}">
+  <dimension ref="A1:AB12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.625" customWidth="1"/>
+    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="62.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+    </row>
+    <row r="8" spans="1:28" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D9" s="2">
+        <v>500</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>20</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D10" s="2">
+        <v>401</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2">
+        <v>17</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X10" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D11" s="2">
+        <v>455</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2">
+        <v>13</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X11" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D12" s="2">
+        <v>488</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>4</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X12" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AAC3C5-D166-4148-A2EF-D50A7E0D2D63}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FE2DE6-EAEA-4774-8078-000D995FAD13}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/StaticData/SampleStaticData.xlsx
+++ b/StaticData/SampleStaticData.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\gitProject\Playground\StaticData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1851406B-7CDC-43DB-934C-BEE5A919B6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE41A5CA-7659-4F6A-B1AB-54993C6E0897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="19935" windowWidth="14400" windowHeight="8700" activeTab="2" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
+    <workbookView xWindow="-22995" yWindow="16770" windowWidth="22695" windowHeight="11430" activeTab="1" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="_ 일러두기" sheetId="1" r:id="rId1"/>
-    <sheet name="UserExp" sheetId="2" r:id="rId2"/>
-    <sheet name="AnimalCard" sheetId="3" r:id="rId3"/>
-    <sheet name="_SponsorCard" sheetId="4" r:id="rId4"/>
-    <sheet name="_ProtectionCard" sheetId="5" r:id="rId5"/>
+    <sheet name="TargetTest" sheetId="6" r:id="rId2"/>
+    <sheet name="UserExp" sheetId="2" r:id="rId3"/>
+    <sheet name="AnimalCard" sheetId="3" r:id="rId4"/>
+    <sheet name="_SponsorCard" sheetId="4" r:id="rId5"/>
+    <sheet name="_ProtectionCard" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="116">
   <si>
     <t>C10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Amount[0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,22 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Key: int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>per100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key: int, Target: Client</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Key, int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CageCondition[0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,10 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ScientificName</t>
   </si>
   <si>
@@ -276,14 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum:Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,10 +313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>버린 카드를 섞은 후 3장 뽑음. 그중 1장 가지고 나머지 카드 버림.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>명성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,10 +373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이번 행동이 끝난 후, 당신은 원하는 행동 카드를 1에 놓을 수 있음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>무족도마뱀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,15 +404,101 @@
     <t>Continent</t>
   </si>
   <si>
-    <t>enum:Reward class:Reward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum:Reward, class:UserReward, Target:Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--key --type int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--type int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--type per100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--key --type int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--type string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--type int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--type enum --type-name Icon</t>
+  </si>
+  <si>
+    <t>--type enum --type-name Reward --class GameReward</t>
+  </si>
+  <si>
+    <t>"버린 카드"를 섞은 후 3장 뽑음. 그중 1장 가지고 나머지 카드 버림.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번 행동이 끝난 후, 당신은 원하는 "행동 카드"를 1에 놓을 수 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--type int --targets Server Client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--foreign-table ScenarioEvent --foreign-key Id --targets Client --type int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--targets Server --type enum --type-name UserRewards --class UserRewardData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--type enum --type-name Severity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--type enum --type-name CageConditions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--type enum --type-name SpecialCazeTypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--type enum --type-name SkillTypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--type enum --type-name SkillNames</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--type int -t Client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--type int -t Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Value2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,6 +620,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -959,20 +1011,148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D14217-DA1D-4A0E-95C5-DF7571E9F311}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>SUM(C4:D4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>101</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>SUM(C5:D5)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>102</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <f>SUM(C6:D6)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>103</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <f>SUM(C7:D7)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>104</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f>SUM(C8:D8)</f>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3139666B-29D1-4298-A8DA-90BC61575186}">
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.125" bestFit="1" customWidth="1"/>
@@ -983,7 +1163,7 @@
     <col min="13" max="13" width="7.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="56.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -996,7 +1176,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -1007,10 +1187,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1018,38 +1198,38 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>40</v>
+      <c r="B10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1059,8 +1239,8 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3" t="s">
-        <v>41</v>
+      <c r="P10" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="26.25" x14ac:dyDescent="0.3">
@@ -1077,37 +1257,37 @@
         <v>19</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="I11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="M11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" s="5" t="s">
+      <c r="P11" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1118,7 +1298,7 @@
         <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2">
         <v>99</v>
@@ -1145,7 +1325,7 @@
         <v>300</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2">
         <v>99</v>
@@ -1155,7 +1335,7 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I13" s="2">
         <v>1001</v>
@@ -1182,7 +1362,7 @@
         <v>600</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2">
         <v>99</v>
@@ -1209,7 +1389,7 @@
         <v>1000</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2">
         <v>99</v>
@@ -1219,7 +1399,7 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" s="2">
         <v>1001</v>
@@ -1242,7 +1422,7 @@
         <v>1500</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2">
         <v>99</v>
@@ -1269,7 +1449,7 @@
         <v>2100</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2">
         <v>99</v>
@@ -1279,7 +1459,7 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="2">
         <v>1001</v>
@@ -1289,7 +1469,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M17" s="2">
         <v>2001</v>
@@ -1310,7 +1490,7 @@
         <v>2700</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2">
         <v>99</v>
@@ -1337,7 +1517,7 @@
         <v>3400</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2">
         <v>99</v>
@@ -1347,7 +1527,7 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19" s="2">
         <v>1001</v>
@@ -1357,7 +1537,7 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M19" s="2">
         <v>2001</v>
@@ -1378,7 +1558,7 @@
         <v>4100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2">
         <v>99</v>
@@ -1405,7 +1585,7 @@
         <v>5000</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2">
         <v>99</v>
@@ -1415,7 +1595,7 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I21" s="2">
         <v>1001</v>
@@ -1425,7 +1605,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M21" s="2">
         <v>2001</v>
@@ -1446,33 +1626,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B73EE45-E586-4244-A3FD-0FA11887A914}">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="4.625" customWidth="1"/>
-    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="29.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="62.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="52.25" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="23.75" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="19.375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="23.75" bestFit="1" customWidth="1"/>
@@ -1482,64 +1665,64 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="D7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>50</v>
+      <c r="D7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>59</v>
+      <c r="K7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>59</v>
+      <c r="Q7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="S7" s="6"/>
-      <c r="T7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>20</v>
+      <c r="T7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
@@ -1548,79 +1731,79 @@
     </row>
     <row r="8" spans="1:28" ht="20.25" x14ac:dyDescent="0.3">
       <c r="D8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="M8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="T8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="7" t="s">
+      <c r="V8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="W8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z8" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
@@ -1628,23 +1811,23 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H9" s="2">
         <v>4</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
@@ -1653,40 +1836,40 @@
         <v>20</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="X9" s="2">
         <v>1</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Z9" s="2">
         <v>1</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB9" s="2">
         <v>5</v>
@@ -1697,13 +1880,13 @@
         <v>401</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H10" s="2">
         <v>5</v>
@@ -1719,25 +1902,25 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="S10" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="X10" s="2">
         <v>6</v>
@@ -1752,10 +1935,10 @@
         <v>455</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2">
@@ -1772,23 +1955,23 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="X11" s="2">
         <v>6</v>
@@ -1803,23 +1986,23 @@
         <v>488</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
@@ -1831,17 +2014,17 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="X12" s="2">
         <v>2</v>
@@ -1857,7 +2040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AAC3C5-D166-4148-A2EF-D50A7E0D2D63}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1870,7 +2053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FE2DE6-EAEA-4774-8078-000D995FAD13}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/StaticData/SampleStaticData.xlsx
+++ b/StaticData/SampleStaticData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\gitProject\Playground\StaticData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE41A5CA-7659-4F6A-B1AB-54993C6E0897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541F0A03-EAD0-4256-ACF0-ED0AC1DCC43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22995" yWindow="16770" windowWidth="22695" windowHeight="11430" activeTab="1" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
+    <workbookView xWindow="-22995" yWindow="16770" windowWidth="22695" windowHeight="11430" activeTab="3" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="_ 일러두기" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
   <si>
     <t>C10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,12 +432,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>--type enum --type-name Icon</t>
-  </si>
-  <si>
-    <t>--type enum --type-name Reward --class GameReward</t>
-  </si>
-  <si>
     <t>"버린 카드"를 섞은 후 3장 뽑음. 그중 1장 가지고 나머지 카드 버림.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -474,10 +468,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>--type enum --type-name SkillNames</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -500,6 +490,12 @@
   <si>
     <t>_Value2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--type enum --type-name GameIcons</t>
+  </si>
+  <si>
+    <t>--type enum --type-name GameRewards --class GameReward</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D14217-DA1D-4A0E-95C5-DF7571E9F311}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1029,7 +1025,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1037,10 +1033,10 @@
         <v>92</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1048,13 +1044,13 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1142,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3139666B-29D1-4298-A8DA-90BC61575186}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1217,10 +1213,10 @@
         <v>92</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>93</v>
@@ -1240,7 +1236,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="26.25" x14ac:dyDescent="0.3">
@@ -1630,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B73EE45-E586-4244-A3FD-0FA11887A914}">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1648,14 +1644,14 @@
     <col min="11" max="11" width="42" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="34" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.875" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="35.875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.75" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="34.625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="35.75" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="63.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="52.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="58.625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="23.75" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="19.375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="23.75" bestFit="1" customWidth="1"/>
@@ -1679,17 +1675,17 @@
         <v>96</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>93</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>93</v>
@@ -1698,28 +1694,28 @@
         <v>93</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="9" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="V7" s="9" t="s">
         <v>96</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>97</v>
@@ -1854,7 +1850,7 @@
         <v>67</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>68</v>
@@ -1968,7 +1964,7 @@
         <v>82</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>70</v>
@@ -2037,6 +2033,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
